--- a/Adult Income Simple RF/Performance_metrics/model_perf_metrics_merged_test .xlsx
+++ b/Adult Income Simple RF/Performance_metrics/model_perf_metrics_merged_test .xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,10 +502,10 @@
         <v>31655</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6699736474965121</v>
+        <v>0.672665218740304</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7709101514420262</v>
+        <v>0.7725137291635134</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -536,10 +536,10 @@
         <v>31655</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6614441416893734</v>
+        <v>0.2369956863740167</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7571484320338581</v>
+        <v>0.5670027586837137</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -570,10 +570,10 @@
         <v>31655</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6109499637418419</v>
+        <v>0.5063864853728883</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7249856782620864</v>
+        <v>0.6694207906513178</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -588,26 +588,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>RF_simp_1_sample:12_cf:1_iteration:1</t>
+          <t>RF_simp_1_sample:20_cf:1_iteration:1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>31667</v>
+        <v>31675</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5884593410778899</v>
+        <v>0.5009009009009009</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7109834307630359</v>
+        <v>0.6667024733912675</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -622,26 +622,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RF_simp_2_sample:12_cf:1_iteration:1</t>
+          <t>RF_simp_2_sample:20_cf:1_iteration:1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>31667</v>
+        <v>31675</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6608636286055641</v>
+        <v>0.1543374135178286</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7566296652739979</v>
+        <v>0.5417733966935776</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -656,26 +656,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RF_simp_1_sample:12_cf:2_iteration:1</t>
+          <t>RF_simp_1_sample:20_cf:1_iteration:2</t>
         </is>
       </c>
       <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
-        <v>12</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
       <c r="F7" t="n">
-        <v>31679</v>
+        <v>31675</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6082779009608278</v>
+        <v>0.328852616418627</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7225790408576479</v>
+        <v>0.5980955087144134</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -690,31 +690,167 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RF_simp_2_sample:12_cf:2_iteration:1</t>
+          <t>RF_simp_2_sample:20_cf:1_iteration:2</t>
         </is>
       </c>
       <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
-        <v>12</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
+        <v>31675</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.2432364096080911</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.5690217953148069</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RF_simp_1_sample:20_cf:2_iteration:1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E9" t="n">
         <v>2</v>
       </c>
-      <c r="F8" t="n">
-        <v>31679</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.6618531889290012</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.756577932814914</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="F9" t="n">
+        <v>31695</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.3431699190861495</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.6032873171943672</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>RF_simp_2_sample:20_cf:2_iteration:1</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>31695</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1803407601572739</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.5494125945620233</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>RF_simp_1_sample:20_cf:2_iteration:2</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>20</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>31695</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.3377902885292048</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.6000737933614533</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>RF_simp_2_sample:20_cf:2_iteration:2</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>20</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>31695</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.1837215388641717</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.5504716178280649</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>0</v>
       </c>
     </row>
